--- a/Alg3_M_E1/Documentos/Agenda de Progeto view.xlsx
+++ b/Alg3_M_E1/Documentos/Agenda de Progeto view.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1155" windowWidth="19140" windowHeight="7605"/>
+    <workbookView xWindow="0" yWindow="1155" windowWidth="15480" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -14,8 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$H$3:$J$19</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -233,58 +232,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="I11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Estatus:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-? = Em aberto
-! = Concluida
-?! = Em execução</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Estatus:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-? = Em aberto
-! = Concluida
-?! = Em execução</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="I13" authorId="0">
       <text>
         <r>
@@ -446,7 +393,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>Descrição atividade</t>
   </si>
@@ -517,30 +464,9 @@
     <t>Desc atributo</t>
   </si>
   <si>
-    <t xml:space="preserve">Variavel </t>
-  </si>
-  <si>
-    <t>codLista</t>
-  </si>
-  <si>
     <t>Tipo atributo</t>
   </si>
   <si>
-    <t xml:space="preserve">int </t>
-  </si>
-  <si>
-    <t xml:space="preserve">String </t>
-  </si>
-  <si>
-    <t>nomeContato</t>
-  </si>
-  <si>
-    <t>fone</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
     <t>Ide/Criação/Teste</t>
   </si>
   <si>
@@ -554,13 +480,16 @@
   </si>
   <si>
     <t>Aquivo txt "ListaTelefonica"</t>
+  </si>
+  <si>
+    <t>Link detelhes do atividade</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -626,6 +555,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -668,10 +604,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -711,14 +651,16 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1018,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1"/>
@@ -1039,21 +981,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="14" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A2" s="12"/>
+      <c r="A2" s="21" t="s">
+        <v>29</v>
+      </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="13"/>
@@ -1079,7 +1023,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>22</v>
@@ -1094,7 +1038,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>6</v>
@@ -1179,22 +1123,19 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G7" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
@@ -1212,25 +1153,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="G8" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>5</v>
@@ -1241,124 +1173,14 @@
       <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="2">
-        <v>6</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="2"/>
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="2">
-        <v>7</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="2"/>
       <c r="K10" s="11"/>
-    </row>
-    <row r="11" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="2">
-        <v>8</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" s="11"/>
-    </row>
-    <row r="12" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="2">
-        <v>9</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:11" ht="22.5" customHeight="1">
       <c r="I13" s="3"/>
@@ -1380,22 +1202,22 @@
       <c r="J16" s="2"/>
       <c r="K16" s="11"/>
     </row>
-    <row r="17" spans="1:11" ht="22.5" customHeight="1">
+    <row r="17" spans="2:11" ht="22.5" customHeight="1">
       <c r="I17" s="3"/>
       <c r="J17" s="2"/>
       <c r="K17" s="11"/>
     </row>
-    <row r="18" spans="1:11" ht="22.5" customHeight="1">
+    <row r="18" spans="2:11" ht="22.5" customHeight="1">
       <c r="I18" s="3"/>
       <c r="J18" s="2"/>
       <c r="K18" s="11"/>
     </row>
-    <row r="19" spans="1:11" s="18" customFormat="1" ht="28.5" customHeight="1">
+    <row r="19" spans="2:11" s="18" customFormat="1" ht="28.5" customHeight="1">
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
@@ -1407,9 +1229,12 @@
   <mergeCells count="1">
     <mergeCell ref="B1:K1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
